--- a/output/ValueSet-v2-0092.xlsx
+++ b/output/ValueSet-v2-0092.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
